--- a/Excel/IOT/INDEX/INDEX.xlsx
+++ b/Excel/IOT/INDEX/INDEX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\测试\INDEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\IOT\INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:H4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
